--- a/data/georgia_census/kakheti/telavi/age_dependency.xlsx
+++ b/data/georgia_census/kakheti/telavi/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EFF0EB6-DB0E-4909-B659-7DB6BAEE594B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B5D80F3-C83C-44B0-A3A3-7813509B417C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE46B5E3-1888-4E8B-BC33-94E89038C2C1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DE64C22-C141-4B84-90E5-9618FEF58CF5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8020C4B7-1C12-4BE1-A64E-FE60FEDB0B14}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{083F5FED-A6E8-4FB5-B497-1DE186AC6A05}"/>
 </file>